--- a/data/trans_camb/P27-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P27-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,25</t>
+          <t>-14,13</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>-4,29</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,32</t>
+          <t>15,19</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,19</t>
+          <t>-4,57</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,56</t>
+          <t>10,43</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,91</t>
+          <t>-16,06</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-9,16</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3,22</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-1,58</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-22,3; 14,43</t>
+          <t>-40,7; 19,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-20,72; 21,25</t>
+          <t>-40,52; 31,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-24,65; 8,95</t>
+          <t>-8,87; 52,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 22,65</t>
+          <t>-24,71; 14,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-17,25; 7,55</t>
+          <t>-4,77; 28,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 16,63</t>
+          <t>-39,09; 6,03</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-26,43; 14,0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-19,59; 24,24</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-19,84; 22,94</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-5,95%</t>
+          <t>-26,13%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>-7,93%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-6,71%</t>
+          <t>28,09%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>-6,66%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-5,96%</t>
+          <t>15,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>-23,4%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-14,85%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>5,21%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-2,56%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-35,28; 31,69</t>
+          <t>-61,06; 42,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-32,81; 47,02</t>
+          <t>-56,93; 67,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-35,53; 14,93</t>
+          <t>-13,76; 176,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 39,57</t>
+          <t>-31,71; 24,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-26,11; 13,8</t>
+          <t>-6,53; 51,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 30,07</t>
+          <t>-51,82; 8,1</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-39,3; 23,6</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-26,69; 46,73</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-29,03; 48,6</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,24</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>-5,92</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>-2,41</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>-13,95</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,71</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,62</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-10,47</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,73; 6,01</t>
+          <t>-14,66; 10,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 10,5</t>
+          <t>-8,02; 18,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 10,51</t>
+          <t>-18,5; 8,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 11,16</t>
+          <t>-7,68; 12,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 4,79</t>
+          <t>-12,32; 8,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 7,37</t>
+          <t>-23,94; -3,02</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-9,04; 8,2</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-7,46; 8,84</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-18,65; -1,49</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-9,42%</t>
+          <t>-5,43%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,53%</t>
+          <t>10,59%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>-12,85%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-2,36%</t>
+          <t>-3,71%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>-21,41%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-1,27%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1,11%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-18,69%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-28,55; 14,91</t>
+          <t>-27,98; 26,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,16; 25,89</t>
+          <t>-15,87; 51,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 18,91</t>
+          <t>-36,37; 21,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 19,68</t>
+          <t>-10,77; 21,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-14,06; 9,74</t>
+          <t>-17,4; 14,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 15,17</t>
+          <t>-34,78; -5,44</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-14,78; 15,61</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-12,5; 17,21</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-31,39; -2,97</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,83</t>
+          <t>9,27</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,55</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,6</t>
+          <t>3,59</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>5,09</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>7,13</t>
+          <t>-0,54</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2,38</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6,94</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,27</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,95; 10,54</t>
+          <t>-12,7; 14,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 19,97</t>
+          <t>-3,02; 23,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 14,16</t>
+          <t>-11,21; 14,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 15,16</t>
+          <t>-8,3; 13,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 9,26</t>
+          <t>-5,96; 15,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,05; 14,13</t>
+          <t>-10,9; 11,35</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-7,65; 9,78</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-1,97; 14,07</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-7,7; 9,34</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,74%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>15,68%</t>
+          <t>18,5%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>-1,02%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>4,59%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>13,39%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0,52%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,2; 24,53</t>
+          <t>-22,05; 33,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 45,92</t>
+          <t>-6,1; 55,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 27,25</t>
+          <t>-19,99; 32,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 30,53</t>
+          <t>-13,51; 28,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-8,78; 18,97</t>
+          <t>-10,1; 32,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 28,72</t>
+          <t>-18,38; 24,11</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-13,19; 20,85</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-3,51; 29,77</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-13,98; 20,02</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,22</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,08</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,43</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,01; 3,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 9,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 8,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 11,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 4,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 8,33</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-6,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-0,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-19,53; 8,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 21,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 14,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 19,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 7,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 15,87</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-2,9</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>4,98</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1,69</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>2,71</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-8,69</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,67</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3,49</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-4,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-11,56; 6,43</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-5,93; 14,72</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-9,96; 11,2</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-5,16; 8,68</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-3,67; 9,91</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-16,38; -1,17</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-7,04; 4,79</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-2,77; 9,34</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-10,7; 2,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-5,95%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>10,21%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0,33%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>2,79%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>4,47%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-14,33%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-1,21%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>6,32%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-8,49%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-21,97; 15,16</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-10,82; 33,27</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-18,85; 25,5</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-8,12; 15,33</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-5,67; 18,03</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-25,58; -1,79</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-12,53; 9,49</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-4,64; 17,91</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-19,22; 3,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
